--- a/data/template_LT.xlsx
+++ b/data/template_LT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\MDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\EV-Test-Data-Analysis\dist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,6 @@
     <sheet name="-7°C数据" sheetId="1" r:id="rId1"/>
     <sheet name="结果计算" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_6AT">#REF!</definedName>
     <definedName name="_6MT">#REF!</definedName>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>循环数</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -905,6 +902,14 @@
   </si>
   <si>
     <t>电驱回收效率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1346,22 +1351,28 @@
     <xf numFmtId="1" fontId="8" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1388,6 +1399,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1400,22 +1414,13 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1878,553 +1883,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="-7°C数据"/>
-      <sheetName val="结果计算"/>
-      <sheetName val="对比"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="A3">
-            <v>1</v>
-          </cell>
-          <cell r="J3">
-            <v>2.68330823088648</v>
-          </cell>
-          <cell r="K3">
-            <v>3.0651781068226698</v>
-          </cell>
-          <cell r="L3">
-            <v>-0.38186987593619198</v>
-          </cell>
-          <cell r="P3">
-            <v>0.92791620058541802</v>
-          </cell>
-          <cell r="S3">
-            <v>0.65354206808572401</v>
-          </cell>
-          <cell r="Y3">
-            <v>0.28256197416623796</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2</v>
-          </cell>
-          <cell r="J4">
-            <v>2.4191170888551699</v>
-          </cell>
-          <cell r="K4">
-            <v>2.9077990961684601</v>
-          </cell>
-          <cell r="L4">
-            <v>-0.48868200731329298</v>
-          </cell>
-          <cell r="P4">
-            <v>0.63547649514448501</v>
-          </cell>
-          <cell r="S4">
-            <v>6.8397847246031498E-3</v>
-          </cell>
-          <cell r="Y4">
-            <v>0.25242457309572786</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>3</v>
-          </cell>
-          <cell r="J5">
-            <v>2.2504835969157799</v>
-          </cell>
-          <cell r="K5">
-            <v>2.9533156212257401</v>
-          </cell>
-          <cell r="L5">
-            <v>-0.70283202430996705</v>
-          </cell>
-          <cell r="P5">
-            <v>0.60302696091866304</v>
-          </cell>
-          <cell r="S5">
-            <v>5.7041388888888901E-4</v>
-          </cell>
-          <cell r="Y5">
-            <v>0.24591366048866303</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>4</v>
-          </cell>
-          <cell r="J6">
-            <v>2.14341241574903</v>
-          </cell>
-          <cell r="K6">
-            <v>2.9872753948095001</v>
-          </cell>
-          <cell r="L6">
-            <v>-0.84386297906047403</v>
-          </cell>
-          <cell r="P6">
-            <v>0.57780304843061803</v>
-          </cell>
-          <cell r="S6">
-            <v>5.7549722222222002E-4</v>
-          </cell>
-          <cell r="Y6">
-            <v>0.24239115377235176</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>5</v>
-          </cell>
-          <cell r="J7">
-            <v>1.9878354583345501</v>
-          </cell>
-          <cell r="K7">
-            <v>2.9146517089326802</v>
-          </cell>
-          <cell r="L7">
-            <v>-0.92681625059813599</v>
-          </cell>
-          <cell r="P7">
-            <v>0.550976210813656</v>
-          </cell>
-          <cell r="S7">
-            <v>5.1178888888889402E-4</v>
-          </cell>
-          <cell r="Y7">
-            <v>0.23665964004735207</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>6</v>
-          </cell>
-          <cell r="J8">
-            <v>1.99283242534889</v>
-          </cell>
-          <cell r="K8">
-            <v>2.9624528812179798</v>
-          </cell>
-          <cell r="L8">
-            <v>-0.96962045586908796</v>
-          </cell>
-          <cell r="P8">
-            <v>0.52956302701611901</v>
-          </cell>
-          <cell r="S8">
-            <v>5.2134444444443696E-4</v>
-          </cell>
-          <cell r="Y8">
-            <v>0.23699492145891654</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>7</v>
-          </cell>
-          <cell r="J9">
-            <v>1.99341428904887</v>
-          </cell>
-          <cell r="K9">
-            <v>2.9234917017153501</v>
-          </cell>
-          <cell r="L9">
-            <v>-0.93007741266647304</v>
-          </cell>
-          <cell r="P9">
-            <v>0.52067162663330702</v>
-          </cell>
-          <cell r="S9">
-            <v>5.06522222496347E-4</v>
-          </cell>
-          <cell r="Y9">
-            <v>0.23464801123937262</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>8</v>
-          </cell>
-          <cell r="J10">
-            <v>1.9913443145479</v>
-          </cell>
-          <cell r="K10">
-            <v>2.9439510681150498</v>
-          </cell>
-          <cell r="L10">
-            <v>-0.95260675356714597</v>
-          </cell>
-          <cell r="P10">
-            <v>0.507564503463239</v>
-          </cell>
-          <cell r="S10">
-            <v>5.1485833333333097E-4</v>
-          </cell>
-          <cell r="Y10">
-            <v>0.23265207875936067</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>9</v>
-          </cell>
-          <cell r="J11">
-            <v>1.95617718750033</v>
-          </cell>
-          <cell r="K11">
-            <v>2.8190671987429998</v>
-          </cell>
-          <cell r="L11">
-            <v>-0.86289001124266596</v>
-          </cell>
-          <cell r="P11">
-            <v>0.50746184312749598</v>
-          </cell>
-          <cell r="S11">
-            <v>5.2862063805280497E-4</v>
-          </cell>
-          <cell r="Y11">
-            <v>0.22235169531019316</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>10</v>
-          </cell>
-          <cell r="J12">
-            <v>1.9585190861111099</v>
-          </cell>
-          <cell r="K12">
-            <v>2.8180353825539299</v>
-          </cell>
-          <cell r="L12">
-            <v>-0.85951629644281802</v>
-          </cell>
-          <cell r="P12">
-            <v>0.51540530753981195</v>
-          </cell>
-          <cell r="S12">
-            <v>5.1827518746181995E-4</v>
-          </cell>
-          <cell r="Y12">
-            <v>0.22409616625822526</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>11</v>
-          </cell>
-          <cell r="J13">
-            <v>1.9480748695013499</v>
-          </cell>
-          <cell r="K13">
-            <v>2.8168678858382101</v>
-          </cell>
-          <cell r="L13">
-            <v>-0.86879301633686501</v>
-          </cell>
-          <cell r="P13">
-            <v>0.51080451927487802</v>
-          </cell>
-          <cell r="S13">
-            <v>5.4009444444445799E-4</v>
-          </cell>
-          <cell r="Y13">
-            <v>0.22370664649774852</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>12</v>
-          </cell>
-          <cell r="J14">
-            <v>1.9671646738203901</v>
-          </cell>
-          <cell r="K14">
-            <v>2.8691362832860099</v>
-          </cell>
-          <cell r="L14">
-            <v>-0.90197160946561505</v>
-          </cell>
-          <cell r="P14">
-            <v>0.50514832182588099</v>
-          </cell>
-          <cell r="S14">
-            <v>5.3220549670060405E-4</v>
-          </cell>
-          <cell r="Y14">
-            <v>0.22374594866762443</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>13</v>
-          </cell>
-          <cell r="J15">
-            <v>1.99282914896564</v>
-          </cell>
-          <cell r="K15">
-            <v>2.9289153699288</v>
-          </cell>
-          <cell r="L15">
-            <v>-0.93608622096316296</v>
-          </cell>
-          <cell r="P15">
-            <v>0.496558836354004</v>
-          </cell>
-          <cell r="S15">
-            <v>5.9992539872615795E-4</v>
-          </cell>
-          <cell r="Y15">
-            <v>0.22448788877840087</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>14</v>
-          </cell>
-          <cell r="J16">
-            <v>2.02087375670077</v>
-          </cell>
-          <cell r="K16">
-            <v>3.1095063818055602</v>
-          </cell>
-          <cell r="L16">
-            <v>-1.0886326251048</v>
-          </cell>
-          <cell r="P16">
-            <v>0.49469065633631099</v>
-          </cell>
-          <cell r="S16">
-            <v>6.2281666661655796E-4</v>
-          </cell>
-          <cell r="Y16">
-            <v>0.22354635107615745</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>15</v>
-          </cell>
-          <cell r="J17">
-            <v>1.9934363583329699</v>
-          </cell>
-          <cell r="K17">
-            <v>2.9980411728874898</v>
-          </cell>
-          <cell r="L17">
-            <v>-1.0046048145545201</v>
-          </cell>
-          <cell r="P17">
-            <v>0.48879490453860702</v>
-          </cell>
-          <cell r="S17">
-            <v>5.2669166665028297E-4</v>
-          </cell>
-          <cell r="Y17">
-            <v>0.22226641252363072</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>16</v>
-          </cell>
-          <cell r="J18">
-            <v>1.97282664105959</v>
-          </cell>
-          <cell r="K18">
-            <v>2.9242806230689098</v>
-          </cell>
-          <cell r="L18">
-            <v>-0.95145398200931797</v>
-          </cell>
-          <cell r="P18">
-            <v>0.49363436080220002</v>
-          </cell>
-          <cell r="S18">
-            <v>5.0796944443868696E-4</v>
-          </cell>
-          <cell r="Y18">
-            <v>0.22345341223773529</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>17</v>
-          </cell>
-          <cell r="J19">
-            <v>1.9934621933419301</v>
-          </cell>
-          <cell r="K19">
-            <v>2.91670609116442</v>
-          </cell>
-          <cell r="L19">
-            <v>-0.92324389782248295</v>
-          </cell>
-          <cell r="P19">
-            <v>0.494021565609984</v>
-          </cell>
-          <cell r="S19">
-            <v>5.1009444444439199E-4</v>
-          </cell>
-          <cell r="Y19">
-            <v>0.22468503001916462</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>18</v>
-          </cell>
-          <cell r="J20">
-            <v>1.99179368366455</v>
-          </cell>
-          <cell r="K20">
-            <v>2.9206644731337299</v>
-          </cell>
-          <cell r="L20">
-            <v>-0.92887078946917401</v>
-          </cell>
-          <cell r="P20">
-            <v>0.495276899233424</v>
-          </cell>
-          <cell r="S20">
-            <v>5.2051089866975999E-4</v>
-          </cell>
-          <cell r="Y20">
-            <v>0.22399632084039922</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>19</v>
-          </cell>
-          <cell r="J21">
-            <v>1.9742090457591299</v>
-          </cell>
-          <cell r="K21">
-            <v>2.8885171551408799</v>
-          </cell>
-          <cell r="L21">
-            <v>-0.914308109381751</v>
-          </cell>
-          <cell r="P21">
-            <v>0.49866014440777401</v>
-          </cell>
-          <cell r="S21">
-            <v>5.2432789213692303E-4</v>
-          </cell>
-          <cell r="Y21">
-            <v>0.22350048222059399</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>20</v>
-          </cell>
-          <cell r="J22">
-            <v>1.9802136685620599</v>
-          </cell>
-          <cell r="K22">
-            <v>2.9309385513149899</v>
-          </cell>
-          <cell r="L22">
-            <v>-0.95072488275293299</v>
-          </cell>
-          <cell r="P22">
-            <v>0.49417797300647098</v>
-          </cell>
-          <cell r="S22">
-            <v>5.1816388888889595E-4</v>
-          </cell>
-          <cell r="Y22">
-            <v>0.22449044211720609</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>21</v>
-          </cell>
-          <cell r="J23">
-            <v>1.93725182282076</v>
-          </cell>
-          <cell r="K23">
-            <v>2.8091081513327998</v>
-          </cell>
-          <cell r="L23">
-            <v>-0.87185632851203598</v>
-          </cell>
-          <cell r="P23">
-            <v>0.53586759080763402</v>
-          </cell>
-          <cell r="S23">
-            <v>0.20908477500032299</v>
-          </cell>
-          <cell r="Y23">
-            <v>0.22158706486828705</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>22</v>
-          </cell>
-          <cell r="J24">
-            <v>1.9190097305556799</v>
-          </cell>
-          <cell r="K24">
-            <v>2.7801307819128001</v>
-          </cell>
-          <cell r="L24">
-            <v>-0.86112105135712302</v>
-          </cell>
-          <cell r="P24">
-            <v>0.45188606264209003</v>
-          </cell>
-          <cell r="S24">
-            <v>0.534136523116441</v>
-          </cell>
-          <cell r="Y24">
-            <v>0.23183551318071899</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>23</v>
-          </cell>
-          <cell r="J25">
-            <v>1.57025683254377</v>
-          </cell>
-          <cell r="K25">
-            <v>2.39341569798649</v>
-          </cell>
-          <cell r="L25">
-            <v>-0.82315886544272399</v>
-          </cell>
-          <cell r="P25">
-            <v>1.93391944444304E-3</v>
-          </cell>
-          <cell r="S25">
-            <v>6.05323608313151E-4</v>
-          </cell>
-          <cell r="Y25">
-            <v>0.23379154872654781</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2688,13 +2146,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV52"/>
+  <dimension ref="A1:AX52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2706,7 +2164,7 @@
     <col min="45" max="45" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:50" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2827,10 +2285,10 @@
       <c r="AN1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AO1" s="38" t="s">
+      <c r="AO1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AP1" s="38" t="s">
+      <c r="AP1" s="20" t="s">
         <v>70</v>
       </c>
       <c r="AQ1" s="1" t="s">
@@ -2845,14 +2303,20 @@
       <c r="AT1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AU1" s="38" t="s">
+      <c r="AU1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AV1" s="38" t="s">
+      <c r="AV1" s="20" t="s">
         <v>72</v>
       </c>
+      <c r="AW1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX1" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2885,38 +2349,38 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="40" t="e">
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="22" t="e">
         <f>J2/C2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP2" s="39" t="e">
+      <c r="AP2" s="21" t="e">
         <f>M2/C2*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ2" s="9" t="e">
-        <f>V2/S2</f>
+        <f t="shared" ref="AQ2:AQ27" si="0">V2/S2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR2" s="16">
-        <f>AVERAGE(AR3:AR27)</f>
+        <f>AVERAGE(AR3:AR51)</f>
         <v>0</v>
       </c>
       <c r="AS2" s="16">
-        <f>AVERAGE(AS3:AS27)</f>
+        <f>AVERAGE(AS3:AS51)</f>
         <v>0</v>
       </c>
       <c r="AT2" s="16">
-        <f>AVERAGE(AT3:AT27)</f>
+        <f>AVERAGE(AT3:AT51)</f>
         <v>0</v>
       </c>
       <c r="AU2" s="9" t="e">
@@ -2927,8 +2391,10 @@
         <f>O2/AG2</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
     </row>
-    <row r="3" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2961,50 +2427,52 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="40" t="e">
-        <f t="shared" ref="AO3:AO27" si="0">J3/C3*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP3" s="39" t="e">
-        <f t="shared" ref="AP3:AP27" si="1">M3/C3*100</f>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="22" t="e">
+        <f t="shared" ref="AO3:AO27" si="1">J3/C3*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP3" s="21" t="e">
+        <f t="shared" ref="AP3:AP27" si="2">M3/C3*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ3" s="9" t="e">
-        <f>V3/S3</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR3" s="16">
-        <f>Y3*1000*2</f>
+        <f t="shared" ref="AR3:AR52" si="3">Y3*1000*2</f>
         <v>0</v>
       </c>
       <c r="AS3" s="16">
-        <f>AB3*1000*2</f>
+        <f t="shared" ref="AS3:AS52" si="4">AB3*1000*2</f>
         <v>0</v>
       </c>
       <c r="AT3" s="16">
-        <f>S3*1000*2</f>
+        <f t="shared" ref="AT3:AT52" si="5">S3*1000*2</f>
         <v>0</v>
       </c>
       <c r="AU3" s="9" t="e">
-        <f t="shared" ref="AU3:AU27" si="2">AF3/N3</f>
+        <f t="shared" ref="AU3:AU27" si="6">AF3/N3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AV3" s="9" t="e">
-        <f t="shared" ref="AV3:AV27" si="3">O3/AG3</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" ref="AV3:AV27" si="7">O3/AG3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
     </row>
-    <row r="4" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -3037,50 +2505,52 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="40" t="e">
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP4" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ4" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP4" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ4" s="9" t="e">
-        <f>V4/S4</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR4" s="16">
-        <f>Y4*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS4" s="16">
-        <f>AB4*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT4" s="16">
-        <f>S4*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU4" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV4" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
     </row>
-    <row r="5" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -3113,50 +2583,52 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="40" t="e">
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP5" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ5" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP5" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ5" s="9" t="e">
-        <f>V5/S5</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR5" s="16">
-        <f>Y5*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS5" s="16">
-        <f>AB5*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT5" s="16">
-        <f>S5*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU5" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV5" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
     </row>
-    <row r="6" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -3189,50 +2661,52 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="40" t="e">
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP6" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ6" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP6" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ6" s="9" t="e">
-        <f>V6/S6</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR6" s="16">
-        <f>Y6*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS6" s="16">
-        <f>AB6*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT6" s="16">
-        <f>S6*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU6" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV6" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
     </row>
-    <row r="7" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -3265,50 +2739,52 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="40" t="e">
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP7" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ7" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP7" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ7" s="9" t="e">
-        <f>V7/S7</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR7" s="16">
-        <f>Y7*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS7" s="16">
-        <f>AB7*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT7" s="16">
-        <f>S7*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU7" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV7" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
     </row>
-    <row r="8" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -3341,50 +2817,52 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="40" t="e">
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP8" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ8" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP8" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ8" s="9" t="e">
-        <f>V8/S8</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR8" s="16">
-        <f>Y8*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS8" s="16">
-        <f>AB8*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT8" s="16">
-        <f>S8*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU8" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV8" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
     </row>
-    <row r="9" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -3417,50 +2895,52 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35"/>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="40" t="e">
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP9" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ9" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP9" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ9" s="9" t="e">
-        <f>V9/S9</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR9" s="16">
-        <f>Y9*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS9" s="16">
-        <f>AB9*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT9" s="16">
-        <f>S9*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU9" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV9" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
     </row>
-    <row r="10" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -3493,50 +2973,52 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="40" t="e">
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP10" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ10" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP10" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ10" s="9" t="e">
-        <f>V10/S10</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR10" s="16">
-        <f>Y10*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS10" s="16">
-        <f>AB10*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT10" s="16">
-        <f>S10*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU10" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV10" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="6"/>
     </row>
-    <row r="11" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -3569,50 +3051,52 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="40" t="e">
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP11" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ11" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP11" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ11" s="9" t="e">
-        <f>V11/S11</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR11" s="16">
-        <f>Y11*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS11" s="16">
-        <f>AB11*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT11" s="16">
-        <f>S11*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU11" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV11" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
     </row>
-    <row r="12" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -3645,50 +3129,52 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="35"/>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="40" t="e">
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP12" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ12" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP12" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ12" s="9" t="e">
-        <f>V12/S12</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR12" s="16">
-        <f>Y12*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS12" s="16">
-        <f>AB12*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT12" s="16">
-        <f>S12*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU12" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV12" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
     </row>
-    <row r="13" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -3721,50 +3207,52 @@
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="35"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="40" t="e">
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP13" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ13" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP13" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ13" s="9" t="e">
-        <f>V13/S13</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR13" s="16">
-        <f>Y13*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS13" s="16">
-        <f>AB13*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT13" s="16">
-        <f>S13*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU13" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV13" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
     </row>
-    <row r="14" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -3797,50 +3285,52 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="40" t="e">
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP14" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ14" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP14" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ14" s="9" t="e">
-        <f>V14/S14</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR14" s="16">
-        <f>Y14*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS14" s="16">
-        <f>AB14*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT14" s="16">
-        <f>S14*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU14" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV14" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
     </row>
-    <row r="15" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -3873,50 +3363,52 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="40" t="e">
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP15" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ15" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP15" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ15" s="9" t="e">
-        <f>V15/S15</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR15" s="16">
-        <f>Y15*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS15" s="16">
-        <f>AB15*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT15" s="16">
-        <f>S15*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU15" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV15" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
     </row>
-    <row r="16" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -3949,50 +3441,52 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="40" t="e">
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP16" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ16" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP16" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ16" s="9" t="e">
-        <f>V16/S16</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR16" s="16">
-        <f>Y16*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS16" s="16">
-        <f>AB16*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT16" s="16">
-        <f>S16*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU16" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV16" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW16" s="6"/>
+      <c r="AX16" s="6"/>
     </row>
-    <row r="17" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -4025,50 +3519,52 @@
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="40" t="e">
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP17" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ17" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP17" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ17" s="9" t="e">
-        <f>V17/S17</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR17" s="16">
-        <f>Y17*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS17" s="16">
-        <f>AB17*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT17" s="16">
-        <f>S17*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU17" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV17" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
     </row>
-    <row r="18" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -4101,50 +3597,52 @@
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="40" t="e">
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP18" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ18" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP18" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ18" s="9" t="e">
-        <f>V18/S18</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR18" s="16">
-        <f>Y18*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS18" s="16">
-        <f>AB18*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT18" s="16">
-        <f>S18*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU18" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV18" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
     </row>
-    <row r="19" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -4177,50 +3675,52 @@
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="37"/>
-      <c r="AO19" s="40" t="e">
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP19" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ19" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP19" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ19" s="9" t="e">
-        <f>V19/S19</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR19" s="16">
-        <f>Y19*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS19" s="16">
-        <f>AB19*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT19" s="16">
-        <f>S19*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU19" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV19" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="6"/>
     </row>
-    <row r="20" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -4253,50 +3753,52 @@
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="35"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="40" t="e">
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP20" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ20" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP20" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ20" s="9" t="e">
-        <f>V20/S20</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR20" s="16">
-        <f>Y20*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS20" s="16">
-        <f>AB20*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT20" s="16">
-        <f>S20*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU20" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV20" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW20" s="6"/>
+      <c r="AX20" s="6"/>
     </row>
-    <row r="21" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -4329,50 +3831,52 @@
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="40" t="e">
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP21" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ21" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP21" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ21" s="9" t="e">
-        <f>V21/S21</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR21" s="16">
-        <f>Y21*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS21" s="16">
-        <f>AB21*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT21" s="16">
-        <f>S21*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU21" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV21" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW21" s="6"/>
+      <c r="AX21" s="6"/>
     </row>
-    <row r="22" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -4405,50 +3909,52 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="37"/>
-      <c r="AO22" s="40" t="e">
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP22" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ22" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP22" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ22" s="9" t="e">
-        <f>V22/S22</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR22" s="16">
-        <f>Y22*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS22" s="16">
-        <f>AB22*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT22" s="16">
-        <f>S22*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU22" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV22" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
     </row>
-    <row r="23" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -4481,50 +3987,52 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="37"/>
-      <c r="AO23" s="40" t="e">
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP23" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ23" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP23" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ23" s="9" t="e">
-        <f>V23/S23</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR23" s="16">
-        <f>Y23*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS23" s="16">
-        <f>AB23*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT23" s="16">
-        <f>S23*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU23" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV23" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6"/>
     </row>
-    <row r="24" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -4557,50 +4065,52 @@
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="37"/>
-      <c r="AO24" s="40" t="e">
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP24" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ24" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP24" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ24" s="9" t="e">
-        <f>V24/S24</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR24" s="16">
-        <f>Y24*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS24" s="16">
-        <f>AB24*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT24" s="16">
-        <f>S24*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU24" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV24" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW24" s="6"/>
+      <c r="AX24" s="6"/>
     </row>
-    <row r="25" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -4633,50 +4143,52 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="35"/>
-      <c r="AK25" s="35"/>
-      <c r="AL25" s="35"/>
-      <c r="AM25" s="35"/>
-      <c r="AN25" s="37"/>
-      <c r="AO25" s="40" t="e">
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP25" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ25" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP25" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ25" s="9" t="e">
-        <f>V25/S25</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR25" s="16">
-        <f>Y25*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS25" s="16">
-        <f>AB25*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT25" s="16">
-        <f>S25*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU25" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV25" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW25" s="6"/>
+      <c r="AX25" s="6"/>
     </row>
-    <row r="26" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -4709,50 +4221,52 @@
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="35"/>
-      <c r="AN26" s="37"/>
-      <c r="AO26" s="40" t="e">
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP26" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ26" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP26" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ26" s="9" t="e">
-        <f>V26/S26</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR26" s="16">
-        <f>Y26*1000*2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS26" s="16">
-        <f>AB26*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT26" s="16">
-        <f>S26*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU26" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV26" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW26" s="6"/>
+      <c r="AX26" s="6"/>
     </row>
-    <row r="27" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -4785,49 +4299,52 @@
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
-      <c r="AE27" s="35"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="35"/>
-      <c r="AI27" s="35"/>
-      <c r="AJ27" s="35"/>
-      <c r="AK27" s="35"/>
-      <c r="AL27" s="35"/>
-      <c r="AM27" s="35"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="40" t="e">
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP27" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ27" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP27" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ27" s="9" t="e">
-        <f>V27/S27</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR27" s="16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS27" s="16">
-        <f>AB27*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT27" s="16">
-        <f>S27*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU27" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV27" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="6"/>
     </row>
-    <row r="28" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -4860,49 +4377,52 @@
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="35"/>
-      <c r="AI28" s="35"/>
-      <c r="AJ28" s="35"/>
-      <c r="AK28" s="35"/>
-      <c r="AL28" s="35"/>
-      <c r="AM28" s="35"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="40" t="e">
-        <f t="shared" ref="AO28:AO47" si="4">J28/C28*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP28" s="39" t="e">
-        <f t="shared" ref="AP28:AP47" si="5">M28/C28*100</f>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="22" t="e">
+        <f t="shared" ref="AO28:AO47" si="8">J28/C28*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP28" s="21" t="e">
+        <f t="shared" ref="AP28:AP47" si="9">M28/C28*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ28" s="9" t="e">
-        <f t="shared" ref="AQ28:AQ46" si="6">V28/S28</f>
+        <f t="shared" ref="AQ28:AQ46" si="10">V28/S28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR28" s="16">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AS28" s="16">
-        <f t="shared" ref="AS28:AS46" si="7">AB28*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT28" s="16">
-        <f t="shared" ref="AT28:AT46" si="8">S28*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU28" s="9" t="e">
-        <f t="shared" ref="AU28:AU47" si="9">AF28/N28</f>
+        <f t="shared" ref="AU28:AU47" si="11">AF28/N28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AV28" s="9" t="e">
-        <f t="shared" ref="AV28:AV47" si="10">O28/AG28</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" ref="AV28:AV47" si="12">O28/AG28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW28" s="6"/>
+      <c r="AX28" s="6"/>
     </row>
-    <row r="29" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -4935,49 +4455,52 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
-      <c r="AK29" s="35"/>
-      <c r="AL29" s="35"/>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="40" t="e">
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP29" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ29" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS29" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP29" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ29" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR29" s="16">
-        <v>2</v>
-      </c>
-      <c r="AS29" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT29" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU29" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV29" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW29" s="6"/>
+      <c r="AX29" s="6"/>
     </row>
-    <row r="30" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -5010,49 +4533,52 @@
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
-      <c r="AE30" s="35"/>
-      <c r="AF30" s="35"/>
-      <c r="AG30" s="35"/>
-      <c r="AH30" s="35"/>
-      <c r="AI30" s="35"/>
-      <c r="AJ30" s="35"/>
-      <c r="AK30" s="35"/>
-      <c r="AL30" s="35"/>
-      <c r="AM30" s="35"/>
-      <c r="AN30" s="37"/>
-      <c r="AO30" s="40" t="e">
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP30" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ30" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR30" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS30" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP30" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ30" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR30" s="16">
-        <v>3</v>
-      </c>
-      <c r="AS30" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT30" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU30" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV30" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW30" s="6"/>
+      <c r="AX30" s="6"/>
     </row>
-    <row r="31" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -5085,49 +4611,52 @@
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="35"/>
-      <c r="AH31" s="35"/>
-      <c r="AI31" s="35"/>
-      <c r="AJ31" s="35"/>
-      <c r="AK31" s="35"/>
-      <c r="AL31" s="35"/>
-      <c r="AM31" s="35"/>
-      <c r="AN31" s="37"/>
-      <c r="AO31" s="40" t="e">
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP31" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ31" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR31" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS31" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP31" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ31" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR31" s="16">
-        <v>4</v>
-      </c>
-      <c r="AS31" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT31" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU31" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV31" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW31" s="6"/>
+      <c r="AX31" s="6"/>
     </row>
-    <row r="32" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -5160,49 +4689,52 @@
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="35"/>
-      <c r="AG32" s="35"/>
-      <c r="AH32" s="35"/>
-      <c r="AI32" s="35"/>
-      <c r="AJ32" s="35"/>
-      <c r="AK32" s="35"/>
-      <c r="AL32" s="35"/>
-      <c r="AM32" s="35"/>
-      <c r="AN32" s="37"/>
-      <c r="AO32" s="40" t="e">
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP32" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ32" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR32" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS32" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP32" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ32" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR32" s="16">
-        <v>5</v>
-      </c>
-      <c r="AS32" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT32" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU32" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV32" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW32" s="6"/>
+      <c r="AX32" s="6"/>
     </row>
-    <row r="33" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -5235,49 +4767,52 @@
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
-      <c r="AG33" s="35"/>
-      <c r="AH33" s="35"/>
-      <c r="AI33" s="35"/>
-      <c r="AJ33" s="35"/>
-      <c r="AK33" s="35"/>
-      <c r="AL33" s="35"/>
-      <c r="AM33" s="35"/>
-      <c r="AN33" s="37"/>
-      <c r="AO33" s="40" t="e">
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP33" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ33" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR33" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS33" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP33" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ33" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR33" s="16">
-        <v>6</v>
-      </c>
-      <c r="AS33" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT33" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU33" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV33" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW33" s="6"/>
+      <c r="AX33" s="6"/>
     </row>
-    <row r="34" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -5310,49 +4845,52 @@
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
-      <c r="AE34" s="35"/>
-      <c r="AF34" s="35"/>
-      <c r="AG34" s="35"/>
-      <c r="AH34" s="35"/>
-      <c r="AI34" s="35"/>
-      <c r="AJ34" s="35"/>
-      <c r="AK34" s="35"/>
-      <c r="AL34" s="35"/>
-      <c r="AM34" s="35"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="40" t="e">
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP34" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ34" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR34" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS34" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP34" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ34" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR34" s="16">
-        <v>7</v>
-      </c>
-      <c r="AS34" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT34" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU34" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV34" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW34" s="6"/>
+      <c r="AX34" s="6"/>
     </row>
-    <row r="35" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -5385,49 +4923,52 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
-      <c r="AE35" s="35"/>
-      <c r="AF35" s="35"/>
-      <c r="AG35" s="35"/>
-      <c r="AH35" s="35"/>
-      <c r="AI35" s="35"/>
-      <c r="AJ35" s="35"/>
-      <c r="AK35" s="35"/>
-      <c r="AL35" s="35"/>
-      <c r="AM35" s="35"/>
-      <c r="AN35" s="37"/>
-      <c r="AO35" s="40" t="e">
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="19"/>
+      <c r="AO35" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP35" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ35" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR35" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS35" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP35" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ35" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR35" s="16">
-        <v>8</v>
-      </c>
-      <c r="AS35" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT35" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU35" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV35" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW35" s="6"/>
+      <c r="AX35" s="6"/>
     </row>
-    <row r="36" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -5460,49 +5001,52 @@
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
-      <c r="AG36" s="35"/>
-      <c r="AH36" s="35"/>
-      <c r="AI36" s="35"/>
-      <c r="AJ36" s="35"/>
-      <c r="AK36" s="35"/>
-      <c r="AL36" s="35"/>
-      <c r="AM36" s="35"/>
-      <c r="AN36" s="37"/>
-      <c r="AO36" s="40" t="e">
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="19"/>
+      <c r="AO36" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP36" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ36" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR36" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS36" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP36" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ36" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR36" s="16">
-        <v>9</v>
-      </c>
-      <c r="AS36" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT36" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU36" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV36" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW36" s="6"/>
+      <c r="AX36" s="6"/>
     </row>
-    <row r="37" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -5535,49 +5079,52 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="35"/>
-      <c r="AH37" s="35"/>
-      <c r="AI37" s="35"/>
-      <c r="AJ37" s="35"/>
-      <c r="AK37" s="35"/>
-      <c r="AL37" s="35"/>
-      <c r="AM37" s="35"/>
-      <c r="AN37" s="37"/>
-      <c r="AO37" s="40" t="e">
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="19"/>
+      <c r="AO37" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP37" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ37" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS37" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP37" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ37" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR37" s="16">
-        <v>10</v>
-      </c>
-      <c r="AS37" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT37" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU37" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV37" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW37" s="6"/>
+      <c r="AX37" s="6"/>
     </row>
-    <row r="38" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -5610,49 +5157,52 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="35"/>
-      <c r="AG38" s="35"/>
-      <c r="AH38" s="35"/>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="35"/>
-      <c r="AM38" s="35"/>
-      <c r="AN38" s="37"/>
-      <c r="AO38" s="40" t="e">
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP38" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ38" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR38" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS38" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP38" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ38" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR38" s="16">
-        <v>11</v>
-      </c>
-      <c r="AS38" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT38" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU38" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV38" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW38" s="6"/>
+      <c r="AX38" s="6"/>
     </row>
-    <row r="39" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -5685,49 +5235,52 @@
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
-      <c r="AE39" s="35"/>
-      <c r="AF39" s="35"/>
-      <c r="AG39" s="35"/>
-      <c r="AH39" s="35"/>
-      <c r="AI39" s="35"/>
-      <c r="AJ39" s="35"/>
-      <c r="AK39" s="35"/>
-      <c r="AL39" s="35"/>
-      <c r="AM39" s="35"/>
-      <c r="AN39" s="37"/>
-      <c r="AO39" s="40" t="e">
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="17"/>
+      <c r="AL39" s="17"/>
+      <c r="AM39" s="17"/>
+      <c r="AN39" s="19"/>
+      <c r="AO39" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP39" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ39" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR39" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS39" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP39" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ39" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR39" s="16">
-        <v>12</v>
-      </c>
-      <c r="AS39" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT39" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU39" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV39" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW39" s="6"/>
+      <c r="AX39" s="6"/>
     </row>
-    <row r="40" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -5760,49 +5313,52 @@
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
-      <c r="AE40" s="35"/>
-      <c r="AF40" s="35"/>
-      <c r="AG40" s="35"/>
-      <c r="AH40" s="35"/>
-      <c r="AI40" s="35"/>
-      <c r="AJ40" s="35"/>
-      <c r="AK40" s="35"/>
-      <c r="AL40" s="35"/>
-      <c r="AM40" s="35"/>
-      <c r="AN40" s="37"/>
-      <c r="AO40" s="40" t="e">
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="17"/>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="17"/>
+      <c r="AM40" s="17"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP40" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ40" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR40" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS40" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP40" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ40" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR40" s="16">
-        <v>13</v>
-      </c>
-      <c r="AS40" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT40" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU40" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV40" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW40" s="6"/>
+      <c r="AX40" s="6"/>
     </row>
-    <row r="41" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -5835,49 +5391,52 @@
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
-      <c r="AE41" s="35"/>
-      <c r="AF41" s="35"/>
-      <c r="AG41" s="35"/>
-      <c r="AH41" s="35"/>
-      <c r="AI41" s="35"/>
-      <c r="AJ41" s="35"/>
-      <c r="AK41" s="35"/>
-      <c r="AL41" s="35"/>
-      <c r="AM41" s="35"/>
-      <c r="AN41" s="37"/>
-      <c r="AO41" s="40" t="e">
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="17"/>
+      <c r="AL41" s="17"/>
+      <c r="AM41" s="17"/>
+      <c r="AN41" s="19"/>
+      <c r="AO41" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP41" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ41" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR41" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS41" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP41" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ41" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR41" s="16">
-        <v>14</v>
-      </c>
-      <c r="AS41" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT41" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU41" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV41" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW41" s="6"/>
+      <c r="AX41" s="6"/>
     </row>
-    <row r="42" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -5910,49 +5469,52 @@
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
       <c r="AD42" s="8"/>
-      <c r="AE42" s="35"/>
-      <c r="AF42" s="35"/>
-      <c r="AG42" s="35"/>
-      <c r="AH42" s="35"/>
-      <c r="AI42" s="35"/>
-      <c r="AJ42" s="35"/>
-      <c r="AK42" s="35"/>
-      <c r="AL42" s="35"/>
-      <c r="AM42" s="35"/>
-      <c r="AN42" s="37"/>
-      <c r="AO42" s="40" t="e">
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+      <c r="AL42" s="17"/>
+      <c r="AM42" s="17"/>
+      <c r="AN42" s="19"/>
+      <c r="AO42" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP42" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ42" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR42" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS42" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP42" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ42" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR42" s="16">
-        <v>15</v>
-      </c>
-      <c r="AS42" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT42" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU42" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV42" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW42" s="6"/>
+      <c r="AX42" s="6"/>
     </row>
-    <row r="43" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -5985,49 +5547,52 @@
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
-      <c r="AE43" s="35"/>
-      <c r="AF43" s="35"/>
-      <c r="AG43" s="35"/>
-      <c r="AH43" s="35"/>
-      <c r="AI43" s="35"/>
-      <c r="AJ43" s="35"/>
-      <c r="AK43" s="35"/>
-      <c r="AL43" s="35"/>
-      <c r="AM43" s="35"/>
-      <c r="AN43" s="37"/>
-      <c r="AO43" s="40" t="e">
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
+      <c r="AJ43" s="17"/>
+      <c r="AK43" s="17"/>
+      <c r="AL43" s="17"/>
+      <c r="AM43" s="17"/>
+      <c r="AN43" s="19"/>
+      <c r="AO43" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP43" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ43" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR43" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS43" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP43" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ43" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR43" s="16">
-        <v>16</v>
-      </c>
-      <c r="AS43" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT43" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU43" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV43" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW43" s="6"/>
+      <c r="AX43" s="6"/>
     </row>
-    <row r="44" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -6060,49 +5625,52 @@
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
-      <c r="AE44" s="35"/>
-      <c r="AF44" s="35"/>
-      <c r="AG44" s="35"/>
-      <c r="AH44" s="35"/>
-      <c r="AI44" s="35"/>
-      <c r="AJ44" s="35"/>
-      <c r="AK44" s="35"/>
-      <c r="AL44" s="35"/>
-      <c r="AM44" s="35"/>
-      <c r="AN44" s="37"/>
-      <c r="AO44" s="40" t="e">
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="17"/>
+      <c r="AH44" s="17"/>
+      <c r="AI44" s="17"/>
+      <c r="AJ44" s="17"/>
+      <c r="AK44" s="17"/>
+      <c r="AL44" s="17"/>
+      <c r="AM44" s="17"/>
+      <c r="AN44" s="19"/>
+      <c r="AO44" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP44" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ44" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR44" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS44" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP44" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ44" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR44" s="16">
-        <v>17</v>
-      </c>
-      <c r="AS44" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT44" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU44" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV44" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW44" s="6"/>
+      <c r="AX44" s="6"/>
     </row>
-    <row r="45" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -6135,49 +5703,52 @@
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
       <c r="AD45" s="8"/>
-      <c r="AE45" s="35"/>
-      <c r="AF45" s="35"/>
-      <c r="AG45" s="35"/>
-      <c r="AH45" s="35"/>
-      <c r="AI45" s="35"/>
-      <c r="AJ45" s="35"/>
-      <c r="AK45" s="35"/>
-      <c r="AL45" s="35"/>
-      <c r="AM45" s="35"/>
-      <c r="AN45" s="37"/>
-      <c r="AO45" s="40" t="e">
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="17"/>
+      <c r="AG45" s="17"/>
+      <c r="AH45" s="17"/>
+      <c r="AI45" s="17"/>
+      <c r="AJ45" s="17"/>
+      <c r="AK45" s="17"/>
+      <c r="AL45" s="17"/>
+      <c r="AM45" s="17"/>
+      <c r="AN45" s="19"/>
+      <c r="AO45" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP45" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ45" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR45" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS45" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP45" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT45" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ45" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR45" s="16">
-        <v>18</v>
-      </c>
-      <c r="AS45" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT45" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU45" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV45" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW45" s="6"/>
+      <c r="AX45" s="6"/>
     </row>
-    <row r="46" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -6210,49 +5781,52 @@
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
       <c r="AD46" s="8"/>
-      <c r="AE46" s="35"/>
-      <c r="AF46" s="35"/>
-      <c r="AG46" s="35"/>
-      <c r="AH46" s="35"/>
-      <c r="AI46" s="35"/>
-      <c r="AJ46" s="35"/>
-      <c r="AK46" s="35"/>
-      <c r="AL46" s="35"/>
-      <c r="AM46" s="35"/>
-      <c r="AN46" s="37"/>
-      <c r="AO46" s="40" t="e">
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
+      <c r="AJ46" s="17"/>
+      <c r="AK46" s="17"/>
+      <c r="AL46" s="17"/>
+      <c r="AM46" s="17"/>
+      <c r="AN46" s="19"/>
+      <c r="AO46" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP46" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ46" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR46" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS46" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP46" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="16">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ46" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR46" s="16">
-        <v>19</v>
-      </c>
-      <c r="AS46" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT46" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU46" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV46" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW46" s="6"/>
+      <c r="AX46" s="6"/>
     </row>
-    <row r="47" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -6285,22 +5859,22 @@
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
       <c r="AD47" s="8"/>
-      <c r="AE47" s="35"/>
-      <c r="AF47" s="35"/>
-      <c r="AG47" s="35"/>
-      <c r="AH47" s="35"/>
-      <c r="AI47" s="35"/>
-      <c r="AJ47" s="35"/>
-      <c r="AK47" s="35"/>
-      <c r="AL47" s="35"/>
-      <c r="AM47" s="35"/>
-      <c r="AN47" s="37"/>
-      <c r="AO47" s="40" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP47" s="39" t="e">
-        <f t="shared" si="5"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="17"/>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
+      <c r="AJ47" s="17"/>
+      <c r="AK47" s="17"/>
+      <c r="AL47" s="17"/>
+      <c r="AM47" s="17"/>
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP47" s="21" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ47" s="9" t="e">
@@ -6308,26 +5882,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR47" s="16">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AS47" s="16">
-        <f>AB47*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT47" s="16">
-        <f>S47*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU47" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV47" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW47" s="6"/>
+      <c r="AX47" s="6"/>
     </row>
-    <row r="48" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -6360,37 +5937,38 @@
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
       <c r="AD48" s="8"/>
-      <c r="AE48" s="35"/>
-      <c r="AF48" s="35"/>
-      <c r="AG48" s="35"/>
-      <c r="AH48" s="35"/>
-      <c r="AI48" s="35"/>
-      <c r="AJ48" s="35"/>
-      <c r="AK48" s="35"/>
-      <c r="AL48" s="35"/>
-      <c r="AM48" s="35"/>
-      <c r="AN48" s="37"/>
-      <c r="AO48" s="40" t="e">
-        <f t="shared" ref="AO48:AO52" si="11">J48/C48*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP48" s="39" t="e">
-        <f t="shared" ref="AP48:AP52" si="12">M48/C48*100</f>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="17"/>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="17"/>
+      <c r="AJ48" s="17"/>
+      <c r="AK48" s="17"/>
+      <c r="AL48" s="17"/>
+      <c r="AM48" s="17"/>
+      <c r="AN48" s="19"/>
+      <c r="AO48" s="22" t="e">
+        <f t="shared" ref="AO48:AO52" si="13">J48/C48*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP48" s="21" t="e">
+        <f t="shared" ref="AP48:AP52" si="14">M48/C48*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ48" s="9" t="e">
-        <f t="shared" ref="AQ48:AQ52" si="13">V48/S48</f>
+        <f t="shared" ref="AQ48:AQ52" si="15">V48/S48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR48" s="16">
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AS48" s="16">
-        <f t="shared" ref="AS48:AS52" si="14">AB48*1000*2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT48" s="16">
-        <f t="shared" ref="AT48:AT52" si="15">S48*1000*2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU48" s="9" t="e">
@@ -6401,8 +5979,10 @@
         <f t="shared" ref="AV48:AV52" si="17">O48/AG48</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AW48" s="6"/>
+      <c r="AX48" s="6"/>
     </row>
-    <row r="49" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -6435,37 +6015,38 @@
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
-      <c r="AE49" s="35"/>
-      <c r="AF49" s="35"/>
-      <c r="AG49" s="35"/>
-      <c r="AH49" s="35"/>
-      <c r="AI49" s="35"/>
-      <c r="AJ49" s="35"/>
-      <c r="AK49" s="35"/>
-      <c r="AL49" s="35"/>
-      <c r="AM49" s="35"/>
-      <c r="AN49" s="37"/>
-      <c r="AO49" s="40" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP49" s="39" t="e">
-        <f t="shared" si="12"/>
+      <c r="AE49" s="17"/>
+      <c r="AF49" s="17"/>
+      <c r="AG49" s="17"/>
+      <c r="AH49" s="17"/>
+      <c r="AI49" s="17"/>
+      <c r="AJ49" s="17"/>
+      <c r="AK49" s="17"/>
+      <c r="AL49" s="17"/>
+      <c r="AM49" s="17"/>
+      <c r="AN49" s="19"/>
+      <c r="AO49" s="22" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP49" s="21" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ49" s="9" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR49" s="16">
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AS49" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT49" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU49" s="9" t="e">
@@ -6476,8 +6057,10 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AW49" s="6"/>
+      <c r="AX49" s="6"/>
     </row>
-    <row r="50" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -6510,37 +6093,38 @@
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
       <c r="AD50" s="8"/>
-      <c r="AE50" s="35"/>
-      <c r="AF50" s="35"/>
-      <c r="AG50" s="35"/>
-      <c r="AH50" s="35"/>
-      <c r="AI50" s="35"/>
-      <c r="AJ50" s="35"/>
-      <c r="AK50" s="35"/>
-      <c r="AL50" s="35"/>
-      <c r="AM50" s="35"/>
-      <c r="AN50" s="37"/>
-      <c r="AO50" s="40" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP50" s="39" t="e">
-        <f t="shared" si="12"/>
+      <c r="AE50" s="17"/>
+      <c r="AF50" s="17"/>
+      <c r="AG50" s="17"/>
+      <c r="AH50" s="17"/>
+      <c r="AI50" s="17"/>
+      <c r="AJ50" s="17"/>
+      <c r="AK50" s="17"/>
+      <c r="AL50" s="17"/>
+      <c r="AM50" s="17"/>
+      <c r="AN50" s="19"/>
+      <c r="AO50" s="22" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP50" s="21" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ50" s="9" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR50" s="16">
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AS50" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT50" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU50" s="9" t="e">
@@ -6551,8 +6135,10 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AW50" s="6"/>
+      <c r="AX50" s="6"/>
     </row>
-    <row r="51" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -6585,37 +6171,38 @@
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
       <c r="AD51" s="8"/>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="35"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="35"/>
-      <c r="AI51" s="35"/>
-      <c r="AJ51" s="35"/>
-      <c r="AK51" s="35"/>
-      <c r="AL51" s="35"/>
-      <c r="AM51" s="35"/>
-      <c r="AN51" s="37"/>
-      <c r="AO51" s="40" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP51" s="39" t="e">
-        <f t="shared" si="12"/>
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="17"/>
+      <c r="AH51" s="17"/>
+      <c r="AI51" s="17"/>
+      <c r="AJ51" s="17"/>
+      <c r="AK51" s="17"/>
+      <c r="AL51" s="17"/>
+      <c r="AM51" s="17"/>
+      <c r="AN51" s="19"/>
+      <c r="AO51" s="22" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP51" s="21" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ51" s="9" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR51" s="16">
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AS51" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT51" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU51" s="9" t="e">
@@ -6626,8 +6213,10 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AW51" s="6"/>
+      <c r="AX51" s="6"/>
     </row>
-    <row r="52" spans="1:48" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -6660,37 +6249,38 @@
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
       <c r="AD52" s="8"/>
-      <c r="AE52" s="35"/>
-      <c r="AF52" s="35"/>
-      <c r="AG52" s="35"/>
-      <c r="AH52" s="35"/>
-      <c r="AI52" s="35"/>
-      <c r="AJ52" s="35"/>
-      <c r="AK52" s="35"/>
-      <c r="AL52" s="35"/>
-      <c r="AM52" s="35"/>
-      <c r="AN52" s="37"/>
-      <c r="AO52" s="40" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP52" s="39" t="e">
-        <f t="shared" si="12"/>
+      <c r="AE52" s="17"/>
+      <c r="AF52" s="17"/>
+      <c r="AG52" s="17"/>
+      <c r="AH52" s="17"/>
+      <c r="AI52" s="17"/>
+      <c r="AJ52" s="17"/>
+      <c r="AK52" s="17"/>
+      <c r="AL52" s="17"/>
+      <c r="AM52" s="17"/>
+      <c r="AN52" s="19"/>
+      <c r="AO52" s="22" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP52" s="21" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ52" s="9" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR52" s="16">
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AS52" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT52" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU52" s="9" t="e">
@@ -6701,6 +6291,8 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AW52" s="6"/>
+      <c r="AX52" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6724,25 +6316,25 @@
   <sheetData>
     <row r="1" spans="2:12" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="2:12" ht="99.95" customHeight="1">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
@@ -6772,10 +6364,10 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="11">
         <f>'-7°C数据'!C3</f>
         <v>0</v>
@@ -6784,7 +6376,7 @@
         <f>'-7°C数据'!J3*1000</f>
         <v>0</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="38">
         <f>E4+E5+E6+E14</f>
         <v>0</v>
       </c>
@@ -6800,21 +6392,21 @@
         <f>G4*H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="17" t="e">
+      <c r="J4" s="33" t="e">
         <f>SUM(I4:I13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="29" t="e">
+      <c r="K4" s="31" t="e">
         <f>F4/J4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="11">
         <f>'-7°C数据'!C4</f>
         <v>0</v>
@@ -6823,7 +6415,7 @@
         <f>'-7°C数据'!J4*1000</f>
         <v>0</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="12" t="e">
         <f>E5/D5</f>
         <v>#DIV/0!</v>
@@ -6836,150 +6428,150 @@
         <f>G5*H5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="24"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20">
+      <c r="C6" s="24"/>
+      <c r="D6" s="39">
         <f>SUM('-7°C数据'!C5:C51)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="38">
         <f>SUM('-7°C数据'!J5:J51)*1000</f>
         <v>0</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="17" t="e">
+      <c r="F6" s="38"/>
+      <c r="G6" s="33" t="e">
         <f>E6/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="22" t="e">
+      <c r="H6" s="40" t="e">
         <f>1-H4-H5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="20" t="e">
+      <c r="I6" s="39" t="e">
         <f>G6*H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="24"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="11">
         <f>'-7°C数据'!C52</f>
         <v>0</v>
@@ -6988,35 +6580,45 @@
         <f>'-7°C数据'!J52*1000</f>
         <v>0</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="24"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="2:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34" t="s">
+      <c r="E15" s="36"/>
+      <c r="F15" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="25"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="J4:J13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="E6:E13"/>
+    <mergeCell ref="G6:G13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="L4:L15"/>
@@ -7033,16 +6635,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="F4:F14"/>
-    <mergeCell ref="J4:J13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="E6:E13"/>
-    <mergeCell ref="G6:G13"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
